--- a/data/cursos.xlsx
+++ b/data/cursos.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DATA DA CONCLUSÃO</t>
+          <t>DATA_DA_CONCLUSAO</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1062,10 +1062,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -1350,10 +1358,18 @@
         <v>2</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -1494,19 +1510,43 @@
         <v>16</v>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>06/02/2026</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>17/02/2026</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>CRCEA-SE</t>
@@ -2662,11 +2702,7 @@
           <t>21/12/2025</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>ICEA</t>
@@ -4526,10 +4562,18 @@
         <v>1</v>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -10862,11 +10906,23 @@
         <v>1</v>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>06/02/2026</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
